--- a/docs/testCases/firstSprint/6.TestCase-Footer.xlsx
+++ b/docs/testCases/firstSprint/6.TestCase-Footer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\StrangerTeam_Project\docs\testCases\firstSprint\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\StrangerTeam_PayApi_Project\docs\testCases\firstSprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BBB6F9-A4B3-4675-926E-7378BC5023D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF8E5B6-850E-49D6-B018-2BBD92F1BE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18975" yWindow="0" windowWidth="19530" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9045" yWindow="5250" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -124,6 +124,27 @@
   </si>
   <si>
     <t>Observe Footer content and design.</t>
+  </si>
+  <si>
+    <t>As Expected</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Some icons is not matching right place in footer. 
+Mobile: "Payapi" icon is not in place should be moved to up and to left screen side , buttons "Pricing" "About" "Contact" need to be moved up and closer to each other. Facebook, Tweeter and Linkedin icons is not present accoring Figma design.
+Tablet: "Payapi" icon is not in place should be moved to left side, buttons "Pricing" "About" "Contact" need to turn to left side and make smaller gaps between them and Facebook, Tweeter and Linkedin should be smaller in size and placed in left upper section position accoring Figma design.
+Web APP: Main "Payapi" icon is not in place should be moved to left side, buttons "Pricing" "About" "Contact" and Facebook, Tweeter and Linkedin also same problem icons is not in right place accoring Figma design.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail		</t>
   </si>
 </sst>
 </file>
@@ -303,20 +324,52 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -331,48 +384,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,24 +677,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="1">
         <v>6</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="15" t="s">
         <v>24</v>
       </c>
@@ -684,25 +705,25 @@
       <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="15"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="35" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="36"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -718,10 +739,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -746,23 +767,25 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="31" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -781,28 +804,28 @@
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="15"/>
@@ -811,7 +834,7 @@
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="14"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
@@ -821,7 +844,7 @@
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="27" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="15"/>
@@ -830,7 +853,7 @@
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="14"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
@@ -840,7 +863,7 @@
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="15"/>
@@ -849,7 +872,7 @@
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
@@ -859,7 +882,7 @@
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="15"/>
@@ -868,7 +891,7 @@
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -878,7 +901,7 @@
       <c r="A13" s="9">
         <v>5</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="15"/>
@@ -887,7 +910,7 @@
       <c r="F13" s="9">
         <v>5</v>
       </c>
-      <c r="G13" s="14"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
@@ -897,7 +920,7 @@
       <c r="A14" s="9">
         <v>6</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="27" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="15"/>
@@ -906,7 +929,7 @@
       <c r="F14" s="9">
         <v>6</v>
       </c>
-      <c r="G14" s="14"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -943,57 +966,61 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="21" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="18" t="s">
+      <c r="E18" s="32"/>
+      <c r="F18" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="18" t="s">
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
     </row>
     <row r="20" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>1</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="12" t="s">
+      <c r="C20" s="35"/>
+      <c r="D20" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="14"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="G20" s="15"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="14"/>
+      <c r="I20" s="27" t="s">
+        <v>34</v>
+      </c>
       <c r="J20" s="15"/>
       <c r="K20" s="16"/>
     </row>
@@ -1001,18 +1028,22 @@
       <c r="A21" s="9">
         <v>2</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="12" t="s">
+      <c r="C21" s="36"/>
+      <c r="D21" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="14"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="27" t="s">
+        <v>37</v>
+      </c>
       <c r="G21" s="15"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="14"/>
+      <c r="I21" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="J21" s="15"/>
       <c r="K21" s="16"/>
     </row>
@@ -1020,68 +1051,61 @@
       <c r="A22" s="9">
         <v>3</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="12" t="s">
+      <c r="C22" s="36"/>
+      <c r="D22" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="14"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="27" t="s">
+        <v>35</v>
+      </c>
       <c r="G22" s="15"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="14"/>
+      <c r="I22" s="27" t="s">
+        <v>34</v>
+      </c>
       <c r="J22" s="15"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>4</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>5</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="16"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>6</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="16"/>
-    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="45">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="F18:H19"/>
+    <mergeCell ref="I18:K19"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -1096,49 +1120,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="F18:H19"/>
-    <mergeCell ref="I18:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/testCases/firstSprint/6.TestCase-Footer.xlsx
+++ b/docs/testCases/firstSprint/6.TestCase-Footer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\StrangerTeam_PayApi_Project\docs\testCases\firstSprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF8E5B6-850E-49D6-B018-2BBD92F1BE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95228C9-C624-412C-A037-C4D3D768D126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9045" yWindow="5250" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>Footer Design</t>
   </si>
   <si>
-    <t>Go to the web pagelink: https://stranger-team-project-61ydf6mit-jkilius-projects.vercel.app/</t>
-  </si>
-  <si>
     <t>This link should redirect me to main page</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fail		</t>
+  </si>
+  <si>
+    <t>Go to the web pagelink: https://stranger-team-pay-api-project.vercel.app/</t>
   </si>
 </sst>
 </file>
@@ -324,52 +324,20 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -384,16 +352,48 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,53 +677,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="1">
         <v>6</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -739,10 +739,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -767,25 +767,25 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="17" t="s">
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="12"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -804,143 +804,143 @@
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="2"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>5</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="2"/>
       <c r="F13" s="9">
         <v>5</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="16"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>6</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
+      <c r="B14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="2"/>
       <c r="F14" s="9">
         <v>6</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="16"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="15"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -966,146 +966,115 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="31" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="28" t="s">
+      <c r="E18" s="22"/>
+      <c r="F18" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="28" t="s">
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>1</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="27" t="s">
+      <c r="E20" s="12"/>
+      <c r="F20" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="15"/>
     </row>
     <row r="21" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>2</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="27" t="s">
+      <c r="E21" s="15"/>
+      <c r="F21" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="15"/>
     </row>
     <row r="22" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>3</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="27" t="s">
+      <c r="E22" s="15"/>
+      <c r="F22" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="16"/>
+      <c r="K22" s="15"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="F18:H19"/>
-    <mergeCell ref="I18:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -1120,6 +1089,37 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="F18:H19"/>
+    <mergeCell ref="I18:K19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
